--- a/Relatorio_Alocacao_2025-07-11.xlsx
+++ b/Relatorio_Alocacao_2025-07-11.xlsx
@@ -445,7 +445,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -472,7 +472,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -782,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,8 +791,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4.56</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="4">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4.56</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="5">
@@ -940,54 +940,22 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Eng. Sênior</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>2,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Coordenação</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Estagiário/Projetista</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Estagiário/Projetista</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>3,12</t>
+          <t>8,75</t>
         </is>
       </c>
     </row>
@@ -1006,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,8 +983,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -1108,7 +1076,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4.56</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="4">
@@ -1148,7 +1116,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4.56</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="5">
@@ -1164,54 +1132,22 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Eng. Sênior</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>2,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Coordenação</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Estagiário/Projetista</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Estagiário/Projetista</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>3,12</t>
+          <t>8,75</t>
         </is>
       </c>
     </row>
